--- a/游戏分析/游戏攻略/V3攻略.xlsx
+++ b/游戏分析/游戏攻略/V3攻略.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hataksumo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOCUMENT\doc\DesignerDoc\游戏分析\游戏攻略\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF5B0E5-34D4-4136-9824-59951EBB4392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B7C0D3-EBF0-442F-81E4-62E5C3665D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="法兰西" sheetId="1" r:id="rId1"/>
     <sheet name="大清" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">大清!$A$2:$AD$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">大清!$A$2:$AF$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">法兰西!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="185">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,18 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.15M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>渔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,14 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.5M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.74M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>烟草</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,14 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.26M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>山东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,18 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.63M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.9M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>山西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,22 +336,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.37M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.5M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陕西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.69M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,18 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.25M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.36M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.6M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>安徽南部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,46 +368,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.01M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22.8M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>湖北东部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13.5M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.85M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97.2K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>湖北西部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13.1M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.87M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,18 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13.3M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54.1K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>江南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,14 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.9M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.39M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">长江 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,58 +404,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16.8M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93.4K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.68M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浙江</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.46M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.03M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>福建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.56M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83.4K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16.2M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台湾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.89M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>619K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -583,18 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.6M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.52M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97.6K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>韶州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,42 +436,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.91M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.76M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27.2K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14.8M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.23M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24.2M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.39M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -647,54 +448,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14.0M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.07M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42.1K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重庆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19.5M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.45M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>云南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.23M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.23M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81.0K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贵州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>837K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东北</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,46 +484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.17M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>518K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.8M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.87M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.08M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>560K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.34M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>239K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>隔壁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -771,14 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>553K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.73K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西北</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -843,34 +560,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.82M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>199K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.42M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.36M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>138K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>564K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>115K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沙漠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -900,6 +589,219 @@
   </si>
   <si>
     <t>江西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化肥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济工业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化肥，炸药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具，火车头，造船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具，武器，火车头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具，食品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼钢，工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器，炼钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造纸，化肥，炸药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼钢，火车头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化肥，玻璃，弹药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤硫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具，纺织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具，玻璃，武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶叶、烟草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水稻，畜牧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展建造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸汽机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢制工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技：
+直冲蒸汽机，车床，机械工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一阶段核心是炼钢，转钢制工具，为后面的铁路做准备。
+东北北，东北南，云南，山西，四川，重庆：建造+5
+东北北，东北南，云南，山西，四川，重庆：钢+2
+当能够完全不红箱子铁质建造时，就该铺行政了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技外交：
+科技优先军事，强制兵役和线列步兵，防止鸦片战争
+外交宿敌越南、缅甸，舔英国毛子
+1个月后直接附庸越南
+政治：废农奴，废济贫法，职业军队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">这一阶段核心准备蒸汽机，切换矿业开采方式。并准备炼钢，提升工具产量
+河南，陕西，准格尔，东北南部：建造+5
+各地铺一波行政
+河南，陕西，江西，东北南部：煤炭+10
+北京，盛京，东北南，准格尔：建造+5
+北京，盛京，东北南：铅+10
+河南，陕西，准格尔：硫+10
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">扩展建造能力：
+北京，江西，山西，东北南，云南：建造+10；河南，陕西，四川，南京，广东：建造+5；北京，河南，南京，广东：大学+4，陕西，四川：大学+2，东北南：大学+1
+山西、东北南、云南：铁+20
+北京、江西、安徽南、南京、广东：工具+5
+期间切换2级建造，要一个省一个省切，保证没红箱子。
+北京武器工厂*5
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织，玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大单位价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中单位价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小单位价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特价1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特价2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米青青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栾妹妹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -959,7 +861,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,8 +892,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1034,6 +948,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1056,7 +1042,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1067,12 +1053,44 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="3" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Grid" xfId="3" xr:uid="{D0B4ECC1-1F71-4180-BBC4-952BC1FDFA37}"/>
@@ -1918,13 +1936,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD47317-6587-43AB-9B12-4A7655C44AA8}">
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AW46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1935,61 +1953,65 @@
     <col min="8" max="13" width="5.625" customWidth="1"/>
     <col min="15" max="27" width="5.625" customWidth="1"/>
     <col min="28" max="28" width="20.5" customWidth="1"/>
-    <col min="29" max="29" width="16.875" customWidth="1"/>
-    <col min="30" max="30" width="17.625" customWidth="1"/>
+    <col min="29" max="29" width="18.5" customWidth="1"/>
+    <col min="30" max="30" width="16.875" customWidth="1"/>
+    <col min="31" max="31" width="17.625" customWidth="1"/>
+    <col min="32" max="32" width="61.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:49" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-    </row>
-    <row r="2" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+    </row>
+    <row r="2" spans="1:49" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
@@ -2019,79 +2041,85 @@
         <v>45</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AF2" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
+      <c r="E3" s="2">
+        <v>3150</v>
+      </c>
+      <c r="F3" s="2">
+        <v>201</v>
+      </c>
+      <c r="G3" s="2">
+        <v>15000</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2106,7 +2134,7 @@
         <v>3</v>
       </c>
       <c r="N3" s="3">
-        <f>MAX(O3:Z3)</f>
+        <f t="shared" ref="N3:N45" si="0">MAX(O3:Z3)</f>
         <v>337</v>
       </c>
       <c r="O3" s="2">
@@ -2133,30 +2161,44 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1740</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>66</v>
+      <c r="G4" s="2">
+        <v>8500</v>
       </c>
       <c r="H4" s="2">
         <v>39</v>
@@ -2175,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="3">
-        <f>MAX(O4:Z4)</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="O4" s="2">
@@ -2203,31 +2245,54 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
-    </row>
-    <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AH4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AQ4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+    </row>
+    <row r="5" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3260</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15000</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2242,7 +2307,7 @@
         <v>15</v>
       </c>
       <c r="N5" s="3">
-        <f>MAX(O5:Z5)</f>
+        <f t="shared" si="0"/>
         <v>347</v>
       </c>
       <c r="O5" s="2">
@@ -2270,34 +2335,55 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
+      <c r="AB5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AD5" s="2"/>
-    </row>
-    <row r="6" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+    </row>
+    <row r="6" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3370</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="2">
+        <v>14500</v>
+      </c>
+      <c r="H6" s="4">
         <v>96</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>116</v>
       </c>
       <c r="J6" s="2"/>
@@ -2309,10 +2395,10 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="3">
-        <f>MAX(O6:Z6)</f>
+        <f t="shared" si="0"/>
         <v>372</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="4">
         <v>372</v>
       </c>
       <c r="P6" s="2"/>
@@ -2332,37 +2418,62 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="AA6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-    </row>
-    <row r="7" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AD6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF6" s="2"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+    </row>
+    <row r="7" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2250</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>86</v>
+      <c r="G7" s="2">
+        <v>9690</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <v>72</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2">
+      <c r="K7" s="4">
         <v>60</v>
       </c>
       <c r="L7" s="2">
@@ -2370,14 +2481,14 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="3">
-        <f>MAX(O7:Z7)</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2">
+      <c r="O7" s="4">
         <v>245</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="4">
         <v>245</v>
       </c>
       <c r="R7" s="2"/>
@@ -2398,38 +2509,61 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-    </row>
-    <row r="8" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+    </row>
+    <row r="8" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4630</v>
+      </c>
+      <c r="F8" s="2">
+        <v>185</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20900</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
         <v>52</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <v>36</v>
       </c>
       <c r="L8" s="2">
@@ -2437,7 +2571,7 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="3">
-        <f>MAX(O8:Z8)</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="O8" s="2"/>
@@ -2454,10 +2588,10 @@
       <c r="T8" s="2">
         <v>488</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="4">
         <v>500</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="4">
         <v>488</v>
       </c>
       <c r="W8" s="2"/>
@@ -2465,27 +2599,50 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
+      <c r="AB8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AD8" s="2"/>
-    </row>
-    <row r="9" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF8" s="2"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+    </row>
+    <row r="9" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>92</v>
+      <c r="E9" s="2">
+        <v>2360</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>93</v>
+      <c r="G9" s="2">
+        <v>10600</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
@@ -2498,7 +2655,7 @@
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="3">
-        <f>MAX(O9:Z9)</f>
+        <f t="shared" si="0"/>
         <v>264</v>
       </c>
       <c r="O9" s="2"/>
@@ -2515,7 +2672,7 @@
       <c r="T9" s="2">
         <v>249</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="4">
         <v>264</v>
       </c>
       <c r="V9" s="2">
@@ -2526,31 +2683,52 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
+      <c r="AB9" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-    </row>
-    <row r="10" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF9" s="2"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+    </row>
+    <row r="10" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5010</v>
+      </c>
+      <c r="F10" s="2">
+        <v>139</v>
+      </c>
+      <c r="G10" s="2">
+        <v>22800</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
@@ -2563,7 +2741,7 @@
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="3">
-        <f>MAX(O10:Z10)</f>
+        <f t="shared" si="0"/>
         <v>540</v>
       </c>
       <c r="O10" s="2"/>
@@ -2574,7 +2752,7 @@
         <v>528</v>
       </c>
       <c r="R10" s="2"/>
-      <c r="S10" s="2">
+      <c r="S10" s="4">
         <v>528</v>
       </c>
       <c r="T10" s="2">
@@ -2591,31 +2769,52 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="AB10" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-    </row>
-    <row r="11" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF10" s="2"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+    </row>
+    <row r="11" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2850</v>
+      </c>
+      <c r="F11" s="2">
+        <v>97.2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>13500</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2626,11 +2825,11 @@
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="3">
-        <f>MAX(O11:Z11)</f>
+        <f t="shared" si="0"/>
         <v>310</v>
       </c>
       <c r="O11" s="2"/>
-      <c r="P11" s="2">
+      <c r="P11" s="4">
         <v>304</v>
       </c>
       <c r="Q11" s="2">
@@ -2654,29 +2853,47 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
+      <c r="AB11" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-    </row>
-    <row r="12" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" s="2"/>
+      <c r="AH11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2870</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>105</v>
+      <c r="G12" s="2">
+        <v>13100</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2687,11 +2904,11 @@
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="3">
-        <f>MAX(O12:Z12)</f>
+        <f t="shared" si="0"/>
         <v>314</v>
       </c>
       <c r="O12" s="2"/>
-      <c r="P12" s="2">
+      <c r="P12" s="4">
         <v>310</v>
       </c>
       <c r="Q12" s="2">
@@ -2715,31 +2932,56 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="AB12" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-    </row>
-    <row r="13" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" s="2"/>
+      <c r="AH12" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AQ12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+    </row>
+    <row r="13" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>54.1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>13300</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2752,7 +2994,7 @@
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="3">
-        <f>MAX(O13:Z13)</f>
+        <f t="shared" si="0"/>
         <v>324</v>
       </c>
       <c r="O13" s="2"/>
@@ -2766,7 +3008,7 @@
       <c r="S13" s="2">
         <v>316</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="4">
         <v>316</v>
       </c>
       <c r="U13" s="2">
@@ -2780,27 +3022,48 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
+      <c r="AB13" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-    </row>
-    <row r="14" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF13" s="2"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+    </row>
+    <row r="14" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>115</v>
+      <c r="E14" s="2">
+        <v>2390</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>114</v>
+      <c r="G14" s="2">
+        <v>10900</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2813,7 +3076,7 @@
         <v>8</v>
       </c>
       <c r="N14" s="3">
-        <f>MAX(O14:Z14)</f>
+        <f t="shared" si="0"/>
         <v>272</v>
       </c>
       <c r="O14" s="2"/>
@@ -2824,10 +3087,10 @@
         <v>257</v>
       </c>
       <c r="R14" s="2"/>
-      <c r="S14" s="2">
+      <c r="S14" s="4">
         <v>257</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="4">
         <v>257</v>
       </c>
       <c r="U14" s="2">
@@ -2841,26 +3104,51 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
+      <c r="AB14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AD14" s="2"/>
-    </row>
-    <row r="15" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+    </row>
+    <row r="15" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2390</v>
+      </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>11100</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2870,7 +3158,7 @@
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="3">
-        <f>MAX(O15:Z15)</f>
+        <f t="shared" si="0"/>
         <v>355</v>
       </c>
       <c r="O15" s="2"/>
@@ -2898,31 +3186,50 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-    </row>
-    <row r="16" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+    </row>
+    <row r="16" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3680</v>
+      </c>
+      <c r="F16" s="2">
+        <v>93.4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>16800</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2935,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="N16" s="3">
-        <f>MAX(O16:Z16)</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="O16" s="2"/>
@@ -2946,7 +3253,7 @@
         <v>388</v>
       </c>
       <c r="R16" s="2"/>
-      <c r="S16" s="2">
+      <c r="S16" s="4">
         <v>388</v>
       </c>
       <c r="T16" s="2">
@@ -2964,39 +3271,58 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
+      <c r="AC16" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AD16" s="2"/>
-    </row>
-    <row r="17" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="6"/>
+    </row>
+    <row r="17" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>124</v>
+      <c r="E17" s="2">
+        <v>2030</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>123</v>
+      <c r="G17" s="2">
+        <v>94600</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2">
+      <c r="L17" s="4">
         <v>20</v>
       </c>
       <c r="M17" s="2">
         <v>11</v>
       </c>
       <c r="N17" s="3">
-        <f>MAX(O17:Z17)</f>
+        <f t="shared" si="0"/>
         <v>246</v>
       </c>
       <c r="O17" s="2"/>
@@ -3011,7 +3337,7 @@
         <v>231</v>
       </c>
       <c r="T17" s="2"/>
-      <c r="U17" s="2">
+      <c r="U17" s="4">
         <v>246</v>
       </c>
       <c r="V17" s="2">
@@ -3023,28 +3349,49 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-    </row>
-    <row r="18" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+    </row>
+    <row r="18" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>128</v>
+      <c r="E18" s="2">
+        <v>3560</v>
+      </c>
+      <c r="F18" s="2">
+        <v>83.4</v>
+      </c>
+      <c r="G18" s="2">
+        <v>16200</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -3057,7 +3404,7 @@
         <v>10</v>
       </c>
       <c r="N18" s="3">
-        <f>MAX(O18:Z18)</f>
+        <f t="shared" si="0"/>
         <v>385</v>
       </c>
       <c r="O18" s="2"/>
@@ -3067,14 +3414,14 @@
       <c r="Q18" s="2">
         <v>375</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="4">
         <v>385</v>
       </c>
       <c r="S18" s="2">
         <v>385</v>
       </c>
       <c r="T18" s="2"/>
-      <c r="U18" s="2">
+      <c r="U18" s="4">
         <v>375</v>
       </c>
       <c r="V18" s="2">
@@ -3086,26 +3433,47 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-    </row>
-    <row r="19" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+    </row>
+    <row r="19" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>131</v>
+      <c r="E19" s="2">
+        <v>619</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>130</v>
+      <c r="G19" s="2">
+        <v>2890</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -3114,11 +3482,11 @@
       <c r="L19" s="2">
         <v>7</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="4">
         <v>13</v>
       </c>
       <c r="N19" s="3">
-        <f>MAX(O19:Z19)</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="O19" s="2"/>
@@ -3146,31 +3514,46 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
+      <c r="AB19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AD19" s="2"/>
-    </row>
-    <row r="20" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AH19" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2520</v>
+      </c>
+      <c r="F20" s="2">
+        <v>97.6</v>
+      </c>
+      <c r="G20" s="2">
+        <v>12600</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -3179,11 +3562,11 @@
       <c r="L20" s="2">
         <v>8</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="4">
         <v>13</v>
       </c>
       <c r="N20" s="3">
-        <f>MAX(O20:Z20)</f>
+        <f t="shared" si="0"/>
         <v>286</v>
       </c>
       <c r="O20" s="2"/>
@@ -3213,31 +3596,45 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
+      <c r="AB20" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-    </row>
-    <row r="21" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AH20" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+    </row>
+    <row r="21" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1760</v>
+      </c>
+      <c r="F21" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7910</v>
       </c>
       <c r="H21" s="2">
         <v>36</v>
@@ -3252,7 +3649,7 @@
         <v>10</v>
       </c>
       <c r="N21" s="3">
-        <f>MAX(O21:Z21)</f>
+        <f t="shared" si="0"/>
         <v>186</v>
       </c>
       <c r="O21" s="2"/>
@@ -3282,29 +3679,41 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
+      <c r="AB21" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
-    </row>
-    <row r="22" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+    </row>
+    <row r="22" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>145</v>
+        <v>95</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3230</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>144</v>
+      <c r="G22" s="2">
+        <v>14800</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -3315,7 +3724,7 @@
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="3">
-        <f>MAX(O22:Z22)</f>
+        <f t="shared" si="0"/>
         <v>367</v>
       </c>
       <c r="O22" s="2"/>
@@ -3325,7 +3734,7 @@
       <c r="Q22" s="2">
         <v>351</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="4">
         <v>361</v>
       </c>
       <c r="S22" s="2">
@@ -3339,40 +3748,54 @@
         <v>351</v>
       </c>
       <c r="W22" s="2"/>
-      <c r="X22" s="2">
+      <c r="X22" s="4">
         <v>359</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-    </row>
-    <row r="23" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC22" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+    </row>
+    <row r="23" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>146</v>
+        <v>80</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5390</v>
+      </c>
+      <c r="F23" s="2">
+        <v>109</v>
+      </c>
+      <c r="G23" s="2">
+        <v>24200</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="2">
+      <c r="I23" s="4">
         <v>52</v>
       </c>
       <c r="J23" s="2"/>
@@ -3382,7 +3805,7 @@
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="3">
-        <f>MAX(O23:Z23)</f>
+        <f t="shared" si="0"/>
         <v>585</v>
       </c>
       <c r="O23" s="2"/>
@@ -3396,7 +3819,7 @@
       <c r="S23" s="2">
         <v>578</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23" s="4">
         <v>568</v>
       </c>
       <c r="U23" s="2">
@@ -3410,53 +3833,67 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
+      <c r="AB23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="AD23" s="2"/>
-    </row>
-    <row r="24" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+    </row>
+    <row r="24" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>151</v>
+        <v>112</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3070</v>
+      </c>
+      <c r="F24" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>14000</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="2">
+      <c r="I24" s="4">
         <v>60</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2">
         <v>40</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="4">
         <v>23</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="3">
-        <f>MAX(O24:Z24)</f>
+        <f t="shared" si="0"/>
         <v>330</v>
       </c>
       <c r="O24" s="2"/>
-      <c r="P24" s="2">
+      <c r="P24" s="4">
         <v>324</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="4">
         <v>324</v>
       </c>
       <c r="R24" s="2"/>
@@ -3476,28 +3913,34 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
+      <c r="AC24" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="AD24" s="2"/>
-    </row>
-    <row r="25" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF24" s="2"/>
+    </row>
+    <row r="25" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>156</v>
+        <v>80</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4450</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>155</v>
+      <c r="G25" s="2">
+        <v>19500</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2">
@@ -3510,14 +3953,14 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="3">
-        <f>MAX(O25:Z25)</f>
+        <f t="shared" si="0"/>
         <v>490</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2">
         <v>480</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="4">
         <v>480</v>
       </c>
       <c r="R25" s="2"/>
@@ -3534,33 +3977,37 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
+      <c r="AB25" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
-    </row>
-    <row r="26" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+    </row>
+    <row r="26" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H26" s="2">
+        <v>80</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1230</v>
+      </c>
+      <c r="F26" s="2">
+        <v>81</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6230</v>
+      </c>
+      <c r="H26" s="4">
         <v>60</v>
       </c>
       <c r="I26" s="2">
@@ -3573,7 +4020,7 @@
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="3">
-        <f>MAX(O26:Z26)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="O26" s="2"/>
@@ -3589,39 +4036,43 @@
       <c r="U26" s="2">
         <v>140</v>
       </c>
-      <c r="V26" s="2">
+      <c r="V26" s="4">
         <v>130</v>
       </c>
-      <c r="W26" s="2">
+      <c r="W26" s="4">
         <v>140</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
+      <c r="AB26" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
-    </row>
-    <row r="27" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+    </row>
+    <row r="27" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>162</v>
+        <v>95</v>
+      </c>
+      <c r="E27" s="2">
+        <v>837</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>78</v>
+      <c r="G27" s="2">
+        <v>4630</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2">
@@ -3629,12 +4080,12 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2">
+      <c r="L27" s="4">
         <v>26</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="3">
-        <f>MAX(O27:Z27)</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="O27" s="2"/>
@@ -3655,7 +4106,7 @@
       <c r="V27" s="2">
         <v>93</v>
       </c>
-      <c r="W27" s="2">
+      <c r="W27" s="4">
         <v>98</v>
       </c>
       <c r="X27" s="2"/>
@@ -3663,26 +4114,30 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
+      <c r="AC27" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="AD27" s="2"/>
-    </row>
-    <row r="28" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+    </row>
+    <row r="28" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>170</v>
+      <c r="E28" s="2">
+        <v>518</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>169</v>
+      <c r="G28" s="2">
+        <v>2170</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -3697,7 +4152,7 @@
         <v>2</v>
       </c>
       <c r="N28" s="3">
-        <f>MAX(O28:Z28)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="O28" s="2">
@@ -3725,46 +4180,52 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
+      <c r="AB28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="AD28" s="2"/>
-    </row>
-    <row r="29" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+    </row>
+    <row r="29" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="E29" s="2">
+        <v>1870</v>
+      </c>
+      <c r="F29" s="2">
+        <v>111</v>
+      </c>
+      <c r="G29" s="2">
+        <v>8800</v>
+      </c>
+      <c r="H29" s="4">
         <v>75</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="4">
         <v>60</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="4">
         <v>45</v>
       </c>
       <c r="K29" s="2"/>
-      <c r="L29" s="2">
+      <c r="L29" s="4">
         <v>25</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="3">
-        <f>MAX(O29:Z29)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="O29" s="2">
@@ -3787,30 +4248,36 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
+      <c r="AA29" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
-    </row>
-    <row r="30" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+    </row>
+    <row r="30" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>174</v>
+      <c r="E30" s="2">
+        <v>560</v>
+      </c>
+      <c r="F30" s="2">
+        <v>108</v>
+      </c>
+      <c r="G30" s="2">
+        <v>3080</v>
       </c>
       <c r="H30" s="2">
         <v>36</v>
@@ -3820,12 +4287,12 @@
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2">
+      <c r="L30" s="4">
         <v>34</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="3">
-        <f>MAX(O30:Z30)</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="O30" s="2">
@@ -3847,27 +4314,33 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
+      <c r="AB30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="AD30" s="2"/>
-    </row>
-    <row r="31" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+    </row>
+    <row r="31" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>178</v>
+      <c r="E31" s="2">
+        <v>239</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
-        <v>177</v>
+      <c r="G31" s="2">
+        <v>1340</v>
       </c>
       <c r="H31" s="2">
         <v>45</v>
@@ -3877,12 +4350,12 @@
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2">
+      <c r="L31" s="4">
         <v>20</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="3">
-        <f>MAX(O31:Z31)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="O31" s="2"/>
@@ -3900,31 +4373,37 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
+      <c r="AB31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="AD31" s="2"/>
-    </row>
-    <row r="32" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+    </row>
+    <row r="32" spans="1:49" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>182</v>
+        <v>111</v>
+      </c>
+      <c r="E32" s="2">
+        <v>109</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3.73</v>
+      </c>
+      <c r="G32" s="2">
+        <v>553</v>
       </c>
       <c r="H32" s="2">
         <v>36</v>
@@ -3939,7 +4418,7 @@
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="3">
-        <f>MAX(O32:Z32)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="O32" s="2"/>
@@ -3960,28 +4439,30 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
-    </row>
-    <row r="33" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+    </row>
+    <row r="33" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>200</v>
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1870</v>
+      </c>
+      <c r="F33" s="2">
+        <v>199</v>
+      </c>
+      <c r="G33" s="2">
+        <v>8820</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -3992,14 +4473,14 @@
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="3">
-        <f>MAX(O33:Z33)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2">
         <v>197</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="4">
         <v>197</v>
       </c>
       <c r="R33" s="2"/>
@@ -4017,28 +4498,32 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
+      <c r="AC33" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AD33" s="2"/>
-    </row>
-    <row r="34" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+    </row>
+    <row r="34" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>202</v>
+      <c r="E34" s="2">
+        <v>1360</v>
+      </c>
+      <c r="F34" s="2">
+        <v>138</v>
+      </c>
+      <c r="G34" s="2">
+        <v>6420</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -4049,14 +4534,14 @@
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="3">
-        <f>MAX(O34:Z34)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2">
         <v>144</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="4">
         <v>150</v>
       </c>
       <c r="R34" s="2"/>
@@ -4065,7 +4550,7 @@
         <v>144</v>
       </c>
       <c r="U34" s="2"/>
-      <c r="V34" s="2">
+      <c r="V34" s="4">
         <v>144</v>
       </c>
       <c r="W34" s="2"/>
@@ -4074,21 +4559,25 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
+      <c r="AC34" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="AD34" s="2"/>
-    </row>
-    <row r="35" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+    </row>
+    <row r="35" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -4102,7 +4591,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="3">
-        <f>MAX(O35:Z35)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="O35" s="2"/>
@@ -4123,39 +4612,41 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
-    </row>
-    <row r="36" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+    </row>
+    <row r="36" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>206</v>
+      <c r="E36" s="2">
+        <v>115</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
-        <v>205</v>
+      <c r="G36" s="2">
+        <v>564</v>
       </c>
       <c r="H36" s="2">
         <v>24</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="2">
+      <c r="J36" s="4">
         <v>36</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="4">
         <v>80</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="3">
-        <f>MAX(O36:Z36)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="O36" s="2">
@@ -4175,22 +4666,26 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
+      <c r="AB36" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
-    </row>
-    <row r="37" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+    </row>
+    <row r="37" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -4206,7 +4701,7 @@
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="3">
-        <f>MAX(O37:Z37)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="O37" s="2"/>
@@ -4227,19 +4722,21 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
-    </row>
-    <row r="38" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+    </row>
+    <row r="38" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -4251,7 +4748,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="3">
-        <f>MAX(O38:Z38)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="O38" s="2">
@@ -4276,19 +4773,21 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
-    </row>
-    <row r="39" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+    </row>
+    <row r="39" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -4302,7 +4801,7 @@
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="3">
-        <f>MAX(O39:Z39)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="O39" s="2"/>
@@ -4323,16 +4822,18 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
-    </row>
-    <row r="40" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+    </row>
+    <row r="40" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -4342,12 +4843,12 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2">
+      <c r="L40" s="4">
         <v>20</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="3">
-        <f>MAX(O40:Z40)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="O40" s="2"/>
@@ -4368,18 +4869,22 @@
       </c>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
+      <c r="AC40" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="AD40" s="2"/>
-    </row>
-    <row r="41" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+    </row>
+    <row r="41" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -4398,7 +4903,7 @@
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="3">
-        <f>MAX(O41:Z41)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="O41" s="2"/>
@@ -4419,16 +4924,18 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
-    </row>
-    <row r="42" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+    </row>
+    <row r="42" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -4447,7 +4954,7 @@
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="3">
-        <f>MAX(O42:Z42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O42" s="2"/>
@@ -4466,16 +4973,18 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
-    </row>
-    <row r="43" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+    </row>
+    <row r="43" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -4494,7 +5003,7 @@
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="3">
-        <f>MAX(O43:Z43)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O43" s="2"/>
@@ -4513,16 +5022,18 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
-    </row>
-    <row r="44" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+    </row>
+    <row r="44" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -4541,7 +5052,7 @@
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="3">
-        <f>MAX(O44:Z44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O44" s="2"/>
@@ -4560,16 +5071,18 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
-    </row>
-    <row r="45" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+    </row>
+    <row r="45" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -4586,7 +5099,7 @@
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="3">
-        <f>MAX(O45:Z45)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="O45" s="2"/>
@@ -4607,8 +5120,10 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
-    </row>
-    <row r="46" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+    </row>
+    <row r="46" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4639,15 +5154,192 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AD2" xr:uid="{8CD47317-6587-43AB-9B12-4A7655C44AA8}"/>
-  <mergeCells count="5">
-    <mergeCell ref="AA1:AD1"/>
+  <autoFilter ref="A2:AF2" xr:uid="{8CD47317-6587-43AB-9B12-4A7655C44AA8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AF45">
+      <sortCondition ref="A2"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="10">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="N1:Z1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="AA1:AF1"/>
+    <mergeCell ref="AH4:AO10"/>
+    <mergeCell ref="AQ4:AW10"/>
+    <mergeCell ref="AH12:AO18"/>
+    <mergeCell ref="AQ12:AW18"/>
+    <mergeCell ref="AH20:AO23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679F2C3B-BB11-4081-A974-D18A9458D8DF}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="26" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>10100</v>
+      </c>
+      <c r="G4">
+        <v>101</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>10200</v>
+      </c>
+      <c r="J4">
+        <v>102</v>
+      </c>
+      <c r="K4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5">
+        <v>35000</v>
+      </c>
+      <c r="D5">
+        <v>350</v>
+      </c>
+      <c r="E5">
+        <v>3.5</v>
+      </c>
+      <c r="F5">
+        <v>35100</v>
+      </c>
+      <c r="G5">
+        <v>351</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>35200</v>
+      </c>
+      <c r="J5">
+        <v>352</v>
+      </c>
+      <c r="K5">
+        <v>3.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="C1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
